--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,81 +40,87 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>great</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
     <t>wife</t>
   </si>
   <si>
@@ -124,64 +130,67 @@
     <t>ever</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>tea</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>kitchen</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>every</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
+    <t>bought</t>
   </si>
   <si>
     <t>hot</t>
@@ -193,25 +202,22 @@
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3875968992248062</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,37 +697,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3775510204081632</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8840579710144928</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +747,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +773,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +799,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -845,13 +851,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7152542372881356</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -871,13 +877,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -897,13 +903,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -923,13 +929,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6619718309859155</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -949,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6470588235294118</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -975,13 +981,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6412520064205457</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L14">
-        <v>799</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>799</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>447</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1001,13 +1007,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6285714285714286</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>800</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>65</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1027,13 +1033,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.5961538461538461</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L16">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1053,13 +1059,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.5846153846153846</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1071,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1079,13 +1085,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5641025641025641</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L18">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1105,13 +1111,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5542168674698795</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1123,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1131,13 +1137,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5526315789473685</v>
+        <v>0.578125</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1149,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1157,13 +1163,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5269461077844312</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L21">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M21">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1175,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1183,13 +1189,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.52</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1201,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1209,13 +1215,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5142857142857142</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1235,13 +1241,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.46875</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1253,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1261,13 +1267,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4583333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1279,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1287,13 +1293,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4518072289156627</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L26">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1305,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1313,13 +1319,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.443609022556391</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1331,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1339,13 +1345,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.4320987654320987</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1357,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1365,13 +1371,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4202334630350195</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L29">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1391,13 +1397,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.3946078431372549</v>
+        <v>0.4191176470588235</v>
       </c>
       <c r="L30">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M30">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1417,13 +1423,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3589041095890411</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L31">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="M31">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1435,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>468</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1443,13 +1449,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3157894736842105</v>
+        <v>0.3741007194244604</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1461,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>143</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1469,13 +1475,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.2972972972972973</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1487,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>78</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1495,13 +1501,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.297029702970297</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1513,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1521,13 +1527,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.2932330827067669</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1539,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1547,13 +1553,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2755651237890204</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L36">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>673</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1573,13 +1579,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2661870503597122</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1591,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1599,13 +1605,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2649006622516556</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1617,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1625,13 +1631,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.2352941176470588</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L39">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1643,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>598</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1651,13 +1657,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2317073170731707</v>
+        <v>0.2432723358449946</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>126</v>
+        <v>703</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1677,13 +1683,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.2198675496688742</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="L41">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1695,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>589</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1703,25 +1709,25 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.2162162162162162</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L42">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="M42">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>290</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1729,25 +1735,25 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.2100313479623825</v>
+        <v>0.215258855585831</v>
       </c>
       <c r="L43">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="M43">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>252</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1755,13 +1761,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1644736842105263</v>
+        <v>0.2097186700767263</v>
       </c>
       <c r="L44">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="M44">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1773,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>381</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1781,13 +1787,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1527446300715991</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L45">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M45">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1799,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>355</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1807,25 +1813,25 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.15</v>
+        <v>0.1962962962962963</v>
       </c>
       <c r="L46">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="M46">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>374</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1833,25 +1839,25 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1444444444444444</v>
+        <v>0.1694510739856802</v>
       </c>
       <c r="L47">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>231</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1859,13 +1865,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1302521008403361</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1877,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>207</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1885,13 +1891,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1296296296296296</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="L49">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1903,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>235</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1911,13 +1917,13 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.127147766323024</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1929,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>254</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1937,13 +1943,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1192214111922141</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L51">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1955,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>362</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1963,25 +1969,25 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.09562841530054644</v>
+        <v>0.1152416356877323</v>
       </c>
       <c r="L52">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>331</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1989,25 +1995,25 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.08309990662931839</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L53">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>982</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2015,25 +2021,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.08201438848920864</v>
+        <v>0.1020114942528736</v>
       </c>
       <c r="L54">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M54">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2041,25 +2047,25 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.06099815157116451</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>508</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2067,25 +2073,25 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.05729166666666666</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L56">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N56">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1086</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2093,25 +2099,77 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.0558766859344894</v>
+        <v>0.06839186691312385</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N57">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>490</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58">
+        <v>0.06333973128598848</v>
+      </c>
+      <c r="L58">
+        <v>33</v>
+      </c>
+      <c r="M58">
+        <v>34</v>
+      </c>
+      <c r="N58">
+        <v>0.97</v>
+      </c>
+      <c r="O58">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0.05203816131830009</v>
+      </c>
+      <c r="L59">
+        <v>60</v>
+      </c>
+      <c r="M59">
+        <v>64</v>
+      </c>
+      <c r="N59">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
